--- a/calculation of wallpaper rolls/calc.xlsx
+++ b/calculation of wallpaper rolls/calc.xlsx
@@ -14,15 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+  <si>
+    <t>area number</t>
+  </si>
   <si>
     <t>h_area</t>
   </si>
   <si>
-    <t>spare_num</t>
+    <t>roll_num</t>
+  </si>
+  <si>
+    <t>pcs_num</t>
+  </si>
+  <si>
+    <t>spare_pcs_num</t>
   </si>
   <si>
     <t>spare_metr</t>
+  </si>
+  <si>
+    <t>spare_metr_sum</t>
+  </si>
+  <si>
+    <t>spare can be used for 1 area</t>
+  </si>
+  <si>
+    <t>spare can be used for 2 area</t>
+  </si>
+  <si>
+    <t>spare can be used for 3 area</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -380,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,22 +423,64 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2.75</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>3.5</v>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.75</v>
+      </c>
+      <c r="H2">
+        <v>5.25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -419,10 +488,66 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/calculation of wallpaper rolls/calc.xlsx
+++ b/calculation of wallpaper rolls/calc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>area number</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>spare can be used for 3 area</t>
+  </si>
+  <si>
+    <t>1- area</t>
+  </si>
+  <si>
+    <t>2- area</t>
+  </si>
+  <si>
+    <t>3- area</t>
   </si>
   <si>
     <t>N/A</t>
@@ -446,8 +455,8 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -471,18 +480,18 @@
         <v>5.25</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -506,18 +515,18 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -541,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
